--- a/Sprint 03/Atividade GMUD - 1ADSB Grupo 11 .xlsx
+++ b/Sprint 03/Atividade GMUD - 1ADSB Grupo 11 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo\Documents\Projeto WINE GUARD\Wine-Guard\Sprint 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C9B37D-5602-4653-A8D6-5D01BD6A67D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF5735C-780B-4F29-9C1B-41259047DDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>NOME DO PROJETO</t>
   </si>
@@ -56,9 +56,6 @@
     <t>RESULTADO PRETENDIDO</t>
   </si>
   <si>
-    <t>PERÍODOS DE TEMPO ESTIMADOS</t>
-  </si>
-  <si>
     <t>APROVAÇÃO</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>COMENTÁRIOS ADICIONAIS</t>
   </si>
   <si>
-    <t>Integração do Jira na dashboard</t>
-  </si>
-  <si>
     <t>Gerenciamento de Mudança - Jira</t>
   </si>
   <si>
@@ -98,15 +92,6 @@
     <t>Implementar na dashboard a ferramenta de suporte para atendimento ao cliente.</t>
   </si>
   <si>
-    <t>RISCO</t>
-  </si>
-  <si>
-    <t>Risco baixo para erros e problemas de execução da plataforma.</t>
-  </si>
-  <si>
-    <t>RESPONSÁVEIS</t>
-  </si>
-  <si>
     <t>CLASSIFICAÇÃO</t>
   </si>
   <si>
@@ -116,21 +101,12 @@
     <t>Com a utilização da plataforma Jira irá melhorar a comunicação e gerenciamento de problemas com o cliente.</t>
   </si>
   <si>
-    <t>PROCEDIMENTO DE ESCALAÇÃO</t>
-  </si>
-  <si>
     <t>PROCEDIMENTO ROLLBACK</t>
   </si>
   <si>
     <t>Mudança Normal.</t>
   </si>
   <si>
-    <t>Julia Kim e Victor Trevisan são os responsáveis pela GMUD e devem ser contatados para resolução de problemas de implementação de plataforma.</t>
-  </si>
-  <si>
-    <t>Período para implementação: dia 20/11/2024 - 14:00 horas às 14:50 horas.                                                                                        Período de teste:  dia 20/11/2024 - 14:50 horas às 15:30 horas.</t>
-  </si>
-  <si>
     <t>Em caso de erro na implementação para retornar a versão anterior, basta acessar a pasta desejada disponível no gitHub e retornar para a versão anterior.</t>
   </si>
   <si>
@@ -140,10 +116,64 @@
     <t>GRUPO</t>
   </si>
   <si>
-    <t>Danilo Oliveira, Gabriel de Pádua, Julia Kim, Nicolas Coelho, Rayra Galvão e Victor Trevisan</t>
-  </si>
-  <si>
-    <t>Grupo 11 - ADSB</t>
+    <t>RESPONSÁVEL SUPLENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Grupo 11 - ADSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   19/11/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Danilo Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Danilo Oliveira, Gabriel de Pádua, Julia Kim, Nicolas Coelho, Rayra Galvão e Victor Trevisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Configuração e integração do Jira na dashboard</t>
+  </si>
+  <si>
+    <t>RESPONSÁVEL PELA IMPLEMENTAÇÃO DA FERRAMENTA</t>
+  </si>
+  <si>
+    <t>Inicialmente pode enfretar problemas de queda de desempenho na utilização na dashboard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Julia Kim, Victor Trevisan e Nicolas Coelho</t>
+  </si>
+  <si>
+    <t>Julia Kim será responsável pela configuração e personalização da plataforma Jira, Nicolas Coelho irá fazer a implementação na dashboard e o Victor Trevisan irá ficar responsável pela criação do WidGet, testes e validação da mudança.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PROCEDIMENTO DE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>ESCALAÇÃO</t>
+    </r>
+  </si>
+  <si>
+    <t>JANELA DE MUDANÇA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Rayra Galvão e Gabriel Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período de conifiguração e implementação da plataforma: dia 20/11/2024 - 14:00 horas às 16:00 horas.                                                                                        Período de teste:  dia 20/11/2024 - 16:15 horas às 17:30 horas.                                                                                                            Període instalação e deploy: dia 21/11/2024 - 13:00 horas às 13:00 horas.                                                                                                              *Este é o período máximo estimado, podendo ser entregue antes.                                                                                              </t>
+  </si>
+  <si>
+    <t>RISCOS</t>
+  </si>
+  <si>
+    <t>RESPONSÁVEL PELA REALIZAÇÃO DA GMUD</t>
   </si>
 </sst>
 </file>
@@ -278,7 +308,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -301,49 +331,55 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
@@ -634,24 +670,26 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.375" style="4" customWidth="1"/>
-    <col min="3" max="7" width="18" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21.375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="18" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -660,282 +698,300 @@
       <c r="G1" s="6"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="12">
-        <v>45615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="H5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="J7" s="26"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="B8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="B9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="B10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="B12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="B13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="B14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="11"/>
+      <c r="B15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C16:H16"/>
     <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B7:H7"/>
     <mergeCell ref="C10:H10"/>
-    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="66" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sprint 03/Atividade GMUD - 1ADSB Grupo 11 .xlsx
+++ b/Sprint 03/Atividade GMUD - 1ADSB Grupo 11 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo\Documents\Projeto WINE GUARD\Wine-Guard\Sprint 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF5735C-780B-4F29-9C1B-41259047DDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551BCC01-B6F4-4A2D-A50E-04EDCDFEBECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,22 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>NOME DO PROJETO</t>
-  </si>
-  <si>
-    <t>DATA CRIADA</t>
-  </si>
-  <si>
-    <t>ORGANIZAÇÃO</t>
-  </si>
-  <si>
-    <t>CASO DE MUDANÇA</t>
-  </si>
-  <si>
-    <t>MUDANÇA PROPOSTA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>POR QUE A MUDANÇA É NECESSÁRIA</t>
   </si>
@@ -68,9 +53,6 @@
     <t>COMENTÁRIOS ADICIONAIS</t>
   </si>
   <si>
-    <t>Gerenciamento de Mudança - Jira</t>
-  </si>
-  <si>
     <t xml:space="preserve">É necessário para dar apoio ao cliente, agregando valor ao produto e contunuidade do negócio, vizando maior satisfação ao cliente. </t>
   </si>
   <si>
@@ -80,107 +62,271 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Projeto aprovado visando melhorias no produto final, melhor relacionamento e comunicação com o cliente.</t>
-  </si>
-  <si>
     <t>Setor de TI Wine Guard</t>
   </si>
   <si>
     <t xml:space="preserve">   Wine Guard</t>
   </si>
   <si>
-    <t>Implementar na dashboard a ferramenta de suporte para atendimento ao cliente.</t>
-  </si>
-  <si>
     <t>CLASSIFICAÇÃO</t>
   </si>
   <si>
-    <t>IMPACTOS</t>
-  </si>
-  <si>
     <t>Com a utilização da plataforma Jira irá melhorar a comunicação e gerenciamento de problemas com o cliente.</t>
   </si>
   <si>
-    <t>PROCEDIMENTO ROLLBACK</t>
-  </si>
-  <si>
     <t>Mudança Normal.</t>
   </si>
   <si>
-    <t>Em caso de erro na implementação para retornar a versão anterior, basta acessar a pasta desejada disponível no gitHub e retornar para a versão anterior.</t>
-  </si>
-  <si>
     <t>INTEGRANTES</t>
   </si>
   <si>
     <t>GRUPO</t>
   </si>
   <si>
-    <t>RESPONSÁVEL SUPLENTE</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Grupo 11 - ADSB</t>
   </si>
   <si>
-    <t xml:space="preserve">   19/11/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Danilo Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Danilo Oliveira, Gabriel de Pádua, Julia Kim, Nicolas Coelho, Rayra Galvão e Victor Trevisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Configuração e integração do Jira na dashboard</t>
-  </si>
-  <si>
-    <t>RESPONSÁVEL PELA IMPLEMENTAÇÃO DA FERRAMENTA</t>
-  </si>
-  <si>
     <t>Inicialmente pode enfretar problemas de queda de desempenho na utilização na dashboard.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Julia Kim, Victor Trevisan e Nicolas Coelho</t>
-  </si>
-  <si>
-    <t>Julia Kim será responsável pela configuração e personalização da plataforma Jira, Nicolas Coelho irá fazer a implementação na dashboard e o Victor Trevisan irá ficar responsável pela criação do WidGet, testes e validação da mudança.</t>
+    <t>JANELA DE MUDANÇA</t>
+  </si>
+  <si>
+    <t>RISCOS</t>
+  </si>
+  <si>
+    <t>EMPRESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15/11/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   20/11/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Danilo Oliveira, Gabriel de Pádua, Julia Kim, Nicolas Coelho, Rayra Galvão e Victor Trevisan</t>
+  </si>
+  <si>
+    <t>DATA CRIAÇÃO GMUD</t>
+  </si>
+  <si>
+    <t>DATA REALIZAÇÃO GMUD</t>
+  </si>
+  <si>
+    <t>PROJETO</t>
+  </si>
+  <si>
+    <t>Gerenciamento de Mudança (GMUD) - Jira</t>
+  </si>
+  <si>
+    <t>OBJETIVO</t>
+  </si>
+  <si>
+    <t>IMPACTOS POSITIVOS</t>
+  </si>
+  <si>
+    <t>IMPACTOS NEGATIVOS</t>
+  </si>
+  <si>
+    <t>Visa melhorar a comunicação com o cliente e agregar valor ao produto.</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">PROCEDIMENTO DE </t>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Duração: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>03:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> horas                                                                                                                                                         </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="0"/>
+        <color theme="1"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
       </rPr>
-      <t>ESCALAÇÃO</t>
+      <t>Início</t>
     </r>
-  </si>
-  <si>
-    <t>JANELA DE MUDANÇA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Rayra Galvão e Gabriel Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Período de conifiguração e implementação da plataforma: dia 20/11/2024 - 14:00 horas às 16:00 horas.                                                                                        Período de teste:  dia 20/11/2024 - 16:15 horas às 17:30 horas.                                                                                                            Període instalação e deploy: dia 21/11/2024 - 13:00 horas às 13:00 horas.                                                                                                              *Este é o período máximo estimado, podendo ser entregue antes.                                                                                              </t>
-  </si>
-  <si>
-    <t>RISCOS</t>
-  </si>
-  <si>
-    <t>RESPONSÁVEL PELA REALIZAÇÃO DA GMUD</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 23:00 horas                                                                                                                                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Término</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="1"/>
+      </rPr>
+      <t>: 02:30 horas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Duração</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="1"/>
+      </rPr>
+      <t>: 25 minutos</t>
+    </r>
+  </si>
+  <si>
+    <t>Falta de uma comunicação efetiva com o cliente na resolução de problemas.</t>
+  </si>
+  <si>
+    <t>ROLLBACK</t>
+  </si>
+  <si>
+    <t>ESCOPO DA ATIVIDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Implementação do Jira</t>
+  </si>
+  <si>
+    <t>DETALHAMENTO DOS PROCESSOS</t>
+  </si>
+  <si>
+    <t>ATIVIDADE</t>
+  </si>
+  <si>
+    <t>TÉRMINO</t>
+  </si>
+  <si>
+    <t>RESPONSÁVEL</t>
+  </si>
+  <si>
+    <t>CONTATO</t>
+  </si>
+  <si>
+    <t>RESPONSÁVEL BACKUP</t>
+  </si>
+  <si>
+    <t>INÍCIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTATO </t>
+  </si>
+  <si>
+    <t>Configuração Jira</t>
+  </si>
+  <si>
+    <t>Personalização Jira</t>
+  </si>
+  <si>
+    <t>Implementação Jira na Dashboard</t>
+  </si>
+  <si>
+    <t>Criação do Widget</t>
+  </si>
+  <si>
+    <t>Testes</t>
+  </si>
+  <si>
+    <t>Validação</t>
+  </si>
+  <si>
+    <t>Julia Kim</t>
+  </si>
+  <si>
+    <t>Nicolas Coelho</t>
+  </si>
+  <si>
+    <t>Victor Trevisan</t>
+  </si>
+  <si>
+    <t>Danilo Oliveira</t>
+  </si>
+  <si>
+    <t>Realização e teste Backup</t>
+  </si>
+  <si>
+    <t>11 95772-2030</t>
+  </si>
+  <si>
+    <t>11 96773-3480</t>
+  </si>
+  <si>
+    <t>11 93456-5467</t>
+  </si>
+  <si>
+    <t>Rayra Galvão</t>
+  </si>
+  <si>
+    <t>Gabriel Silva</t>
+  </si>
+  <si>
+    <t>11 99324-0761</t>
+  </si>
+  <si>
+    <t>11 98541-6578</t>
+  </si>
+  <si>
+    <t>11 91230-3129</t>
+  </si>
+  <si>
+    <t>Documentar a ação (GMUD)</t>
+  </si>
+  <si>
+    <t>A GMUD foi realizada com sucesso, sem problemas ou atrasos nos processos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -258,6 +404,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="22"/>
+      <color theme="4"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -279,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -302,13 +469,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -331,37 +555,47 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -371,14 +605,32 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -386,7 +638,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
@@ -670,327 +933,540 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.375" style="4" customWidth="1"/>
-    <col min="3" max="5" width="18" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18" style="4" customWidth="1"/>
-    <col min="8" max="8" width="25.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="29.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="G1" s="15"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>29</v>
+      <c r="H3" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="J8" s="15"/>
+        <v>7</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+        <v>35</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="13" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="13" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="22"/>
+    </row>
+    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B19" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="34">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D21" s="34">
+        <v>0.96875</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="34">
+        <v>0.96875</v>
+      </c>
+      <c r="D22" s="34">
+        <v>0.99305555555555558</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="34">
+        <v>0.99305555555555558</v>
+      </c>
+      <c r="D23" s="34">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="B24" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="34">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D24" s="34">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="34">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D25" s="34">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="34">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="D26" s="34">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="34">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="D27" s="34">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="34">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D28" s="34">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+    </row>
+    <row r="30" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+    </row>
+    <row r="31" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="C14:H14"/>
     <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="C11:H11"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B6:H6"/>
     <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C7:H7"/>
   </mergeCells>
+  <conditionalFormatting sqref="C21:D21">
+    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(C21)=MONTH(EDATE(TODAY(),0-1)),YEAR(C21)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="66" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Sprint 03/Atividade GMUD - 1ADSB Grupo 11 .xlsx
+++ b/Sprint 03/Atividade GMUD - 1ADSB Grupo 11 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo\Documents\Projeto WINE GUARD\Wine-Guard\Sprint 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551BCC01-B6F4-4A2D-A50E-04EDCDFEBECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FA94CE-8BAF-498D-9E3E-987D9751FB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,7 +324,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -569,9 +569,41 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -587,7 +619,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -597,41 +628,10 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
@@ -935,9 +935,9 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -968,12 +968,12 @@
       <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="9" t="s">
         <v>26</v>
       </c>
@@ -985,12 +985,12 @@
       <c r="B3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="10" t="s">
         <v>25</v>
       </c>
@@ -1002,12 +1002,12 @@
       <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="10" t="s">
         <v>15</v>
       </c>
@@ -1016,29 +1016,29 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1046,421 +1046,421 @@
       <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="25" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="22"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31" t="s">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="I20" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
+    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="19">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="19">
         <v>0.96875</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33" t="s">
+      <c r="F21" s="18"/>
+      <c r="G21" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="33" t="s">
+    <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="19">
         <v>0.96875</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="19">
         <v>0.99305555555555558</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33" t="s">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="33" t="s">
+    <row r="23" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="19">
         <v>0.99305555555555558</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="19">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33" t="s">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="19">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="s">
+    <row r="25" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="19">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33" t="s">
+      <c r="F25" s="18"/>
+      <c r="G25" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="33" t="s">
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="19">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="19">
         <v>6.9444444444444448E-2</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33" t="s">
+      <c r="F26" s="18"/>
+      <c r="G26" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="33" t="s">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="19">
         <v>6.9444444444444448E-2</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="19">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33" t="s">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="33" t="s">
+    <row r="28" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="19">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="19">
         <v>0.10416666666666667</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33" t="s">
+      <c r="F28" s="18"/>
+      <c r="G28" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I28" s="33" t="s">
+      <c r="I28" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C4:F4"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C13:H13"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <conditionalFormatting sqref="C21:D21">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastMonth">
